--- a/realsense_pix2distance.xlsx
+++ b/realsense_pix2distance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi/github/arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB448A91-B6F7-9E43-8117-CD9D419695D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3A7CB-2B6F-E14B-ACBA-D181C97AFE8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="20540" xr2:uid="{307A76FC-44DC-A844-BAE0-87BA7121C273}"/>
   </bookViews>
@@ -159,15 +159,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>z=40</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -178,7 +170,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -193,11 +185,11 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="15875" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -255,15 +247,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>z=30</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -274,14 +258,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -289,17 +273,17 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="15875" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="100"/>
-            <c:backward val="200"/>
+            <c:forward val="200"/>
+            <c:backward val="300"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
@@ -363,15 +347,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>z=20</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -382,14 +358,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -397,11 +373,11 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="15875" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -471,15 +447,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>z=10</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -490,14 +458,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -505,11 +473,11 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="15875" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -579,15 +547,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>z=5</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -598,14 +558,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -613,11 +573,11 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="15875" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -694,6 +654,58 @@
         <c:axId val="725250480"/>
         <c:axId val="725269024"/>
       </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>100</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B3BF-6646-8EC4-93CBB531A3F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="490715200"/>
+        <c:axId val="490519904"/>
+      </c:scatterChart>
       <c:valAx>
         <c:axId val="725250480"/>
         <c:scaling>
@@ -703,20 +715,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -724,20 +722,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="3200"/>
                   <a:t>Δpixel</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:endParaRPr lang="ja-JP" sz="3200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -754,13 +752,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ja-JP"/>
@@ -768,12 +766,12 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -786,13 +784,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -812,20 +810,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -833,27 +817,38 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Δx</a:t>
+                  <a:rPr lang="en-US" sz="3200"/>
+                  <a:t>Δ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="3200" i="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200"/>
                   <a:t> (cm)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3765998322374651E-2"/>
+              <c:y val="0.3050255717980182"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -867,13 +862,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ja-JP"/>
@@ -881,12 +876,12 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -899,13 +894,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -914,6 +909,94 @@
         <c:crossAx val="725250480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="490519904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490715200"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="490715200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490519904"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -947,14 +1030,18 @@
         <c:idx val="9"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19905938394269557"/>
-          <c:y val="5.8651111019499526E-2"/>
-          <c:w val="0.15185426870853741"/>
-          <c:h val="0.38637506699097168"/>
+          <c:x val="0.21711807468761665"/>
+          <c:y val="6.3886713113740362E-2"/>
+          <c:w val="0.18719849081364828"/>
+          <c:h val="0.37699014717401169"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -970,13 +1057,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
@@ -1009,10 +1096,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2400">
+        <a:defRPr sz="2800">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
@@ -1047,10 +1136,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23838870312443816"/>
+          <c:x val="0.20663875000000001"/>
           <c:y val="5.3389892160219103E-2"/>
-          <c:w val="0.70872325890770493"/>
-          <c:h val="0.75279677336528583"/>
+          <c:w val="0.74047319444444448"/>
+          <c:h val="0.74221347222222223"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1068,14 +1157,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1083,11 +1172,11 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="15875" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1095,40 +1184,7 @@
             <c:forward val="5"/>
             <c:backward val="5"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.14851598173515981"/>
-                  <c:y val="1.1474994679719089E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1196,6 +1252,58 @@
         <c:axId val="765960048"/>
         <c:axId val="765961680"/>
       </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>31</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0.02</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-187E-8140-8519-96978E1F3E5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="529064416"/>
+        <c:axId val="530702736"/>
+      </c:scatterChart>
       <c:valAx>
         <c:axId val="765960048"/>
         <c:scaling>
@@ -1205,20 +1313,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1226,20 +1320,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>z (cm)</a:t>
+                  <a:rPr lang="en-US" sz="3200" i="1"/>
+                  <a:t>z</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200"/>
+                  <a:t> (cm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="3200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1256,13 +1354,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ja-JP"/>
@@ -1270,12 +1368,12 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1288,13 +1386,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1313,20 +1411,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1334,24 +1418,32 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>傾き</a:t>
+                  <a:rPr lang="en-US" sz="3200" i="1"/>
+                  <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" sz="3200" i="0"/>
+                  <a:t>Gradient</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" i="0" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" i="1"/>
                   <a:t>a</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" sz="3200" i="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1368,13 +1460,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ja-JP"/>
@@ -1382,12 +1474,12 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1400,13 +1492,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1415,6 +1507,92 @@
         <c:crossAx val="765960048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="530702736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7.0000000000000007E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529064416"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="529064416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530702736"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1452,10 +1630,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2400">
+        <a:defRPr sz="2800">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
@@ -1483,39 +1663,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20240819444444444"/>
+          <c:y val="4.3313725490196076E-2"/>
+          <c:w val="0.74351319444444441"/>
+          <c:h val="0.74435305555555553"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1531,14 +1691,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1546,55 +1706,19 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="15875" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:forward val="2"/>
             <c:intercept val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.6477909011373574E-2"/>
-                  <c:y val="6.603966170895305E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1650,39 +1774,138 @@
         <c:axId val="315747471"/>
         <c:axId val="315749151"/>
       </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>90</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC24-B147-9731-B75DE160D680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="490581840"/>
+        <c:axId val="566609600"/>
+      </c:scatterChart>
       <c:valAx>
         <c:axId val="315747471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="180"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" i="1">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>θ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> (deg)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="3200">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1693,16 +1916,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1711,40 +1931,103 @@
         <c:crossAx val="315749151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="315749151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" i="1">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> (cm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="3200">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.1300694444444443E-2"/>
+              <c:y val="0.33466750000000001"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1755,12 +2038,98 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315747471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="566609600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490581840"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="490581840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="180"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1770,9 +2139,10 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315747471"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="566609600"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1798,12 +2168,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1813,7 +2178,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -3499,15 +3868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>507100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>176898</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3534,16 +3903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>126100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3571,15 +3940,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>672200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>126100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3906,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ACB6D8-C615-A34A-9BB7-4EE73EE4047D}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
